--- a/events.xlsx
+++ b/events.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lindasaysithideth/Desktop/zenevents2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{2B6D50F7-4AE6-824C-A5C6-C791609AA262}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ABB4884-7C5A-D245-9B8A-8D0BA452073A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20020"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="events" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,18 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">events!$A$1:$I$9</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -217,7 +228,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1052,12 +1063,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1370,7 +1379,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="str">
-        <f t="shared" ref="A14:A21" si="0">_xlfn.CONCAT("{",$A$1,A3,", ",$B$1,B3,", ",$C$1,"'",C3,"', ",$D$1,"'",D3,"', ",$E$1,"'",E3,"', ",$F$1,"'",F3,,"', ",$G$1,G3,", ",$H$1,"'",H3,"', ",$I$1,"'",I3,"'},")</f>
+        <f t="shared" ref="A14:A20" si="0">_xlfn.CONCAT("{",$A$1,A3,", ",$B$1,B3,", ",$C$1,"'",C3,"', ",$D$1,"'",D3,"', ",$E$1,"'",E3,"', ",$F$1,"'",F3,,"', ",$G$1,G3,", ",$H$1,"'",H3,"', ",$I$1,"'",I3,"'},")</f>
         <v>{lat: 39.00933935, long: -77.4298073, id: 'B', title: 'Beyond Breath - SKY Breadth Meditation', link: 'https://www.eventbrite.com/e/beyond-breath-an-introduction-to-sky-breath-meditation-sterling-tickets-152571693041?aff=ebdssbdestsearch', location: 'Sterling • Sterling, VA', date: "May 15", img: 'https://img.evbuc.com/https%3A%2F%2Fcdn.evbuc.com%2Fimages%2F133552853%2F465295460231%2F1%2Foriginal.20200807-053241?w=800&amp;auto=format%2Ccompress&amp;q=75&amp;sharp=10&amp;rect=0%2C2%2C1570%2C785&amp;s=a1da2875a26c6656b09f3ed4cb970efc', keywords: 'meditation'},</v>
       </c>
     </row>
@@ -1418,7 +1427,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E7" r:id="rId1"/>
+    <hyperlink ref="E7" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
